--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_161.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_161.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,223 +488,224 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53328173374613</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02), (81.1, 87.58)]</t>
+          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:59.623968', '0:02:12.209183')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.18, 14.22)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6389452332657202</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.64, 23.8)]</t>
+          <t>[('0:00:40.074104', '0:01:00.217414')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:59.623968', '0:02:19.024240')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1229096989966555</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[('0:00:46.600000', '0:00:49.040000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (12.14, 20.02)]</t>
+          <t>[('0:01:43.420000', '0:01:55.040000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:41.320000', '0:00:49.380000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -708,133 +714,132 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:01:04.280000', '0:01:11')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -843,362 +848,328 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:12.140000', '0:00:20.020000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.200000', '0:00:12.660000'), ('0:00:00.780000', '0:00:05.260000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(25.48, 32.76), (74.8, 81.06)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.38, 21.84)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.36, 24.16)]</t>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(17.38, 61.66)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(14.9, 56.28)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
